--- a/youtube_ranking.xlsx
+++ b/youtube_ranking.xlsx
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>432만</t>
+          <t>434만</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4361,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[BJ/인물/연예인]</t>
+          <t>[미분류]</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>차린건 쥐뿔도 없지만</t>
+          <t>Joji</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4381,12 +4381,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[음식/요리/레시피]</t>
+          <t>[BJ/인물/연예인]</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[Dorothy]도로시</t>
+          <t>차린건 쥐뿔도 없지만</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4401,17 +4401,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[미분류]</t>
+          <t>[음식/요리/레시피]</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Joji</t>
+          <t>[Dorothy]도로시</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>406만</t>
+          <t>407만</t>
         </is>
       </c>
     </row>
